--- a/USDA/Soybeans.xlsx
+++ b/USDA/Soybeans.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:Q454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -10942,10 +10942,8 @@
       <c r="K215" t="n">
         <v>96</v>
       </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>空</t>
-        </is>
+      <c r="L215" t="n">
+        <v>50</v>
       </c>
       <c r="M215" t="n">
         <v>3862</v>
@@ -12169,10 +12167,8 @@
       <c r="K240" t="n">
         <v>97</v>
       </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>空</t>
-        </is>
+      <c r="L240" t="n">
+        <v>25</v>
       </c>
       <c r="M240" t="n">
         <v>3944</v>
@@ -13394,10 +13390,8 @@
       <c r="K265" t="n">
         <v>104</v>
       </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>空</t>
-        </is>
+      <c r="L265" t="n">
+        <v>14</v>
       </c>
       <c r="M265" t="n">
         <v>4083</v>
